--- a/Final_results/BDF_rolling_text_2020.xlsx
+++ b/Final_results/BDF_rolling_text_2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -760,36 +760,16 @@
     <t xml:space="preserve">-4.0 (80)</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, giving a speech about the economic outlook of France. Today is 12 January 2021. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 12 January 2021, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, and you are giving a speech about the economic outlook of France. Today is 12 January 2021. Using ONLY information that was available on or before 12 January 2021, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 12 January 2021.</t>
   </si>
   <si>
-    <t xml:space="preserve">
--4.4 (90)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
--4.0 (90)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
--2.5 (85)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.0 (90)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
--2.9 (85)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.9 (85)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
--2.0 (90)</t>
+    <t xml:space="preserve">-2.5 (75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.0 (85)</t>
   </si>
   <si>
     <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, giving a speech about the economic outlook of France. Today is 08 February 2021. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 08 February 2021, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the first quarter of 2021 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
@@ -8728,82 +8708,82 @@
         <v>174</v>
       </c>
       <c r="C73" t="n">
-        <v>-4.4</v>
+        <v>-2.5</v>
       </c>
       <c r="D73" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E73" t="s">
         <v>175</v>
       </c>
       <c r="F73" t="n">
-        <v>-4</v>
+        <v>-2.5</v>
       </c>
       <c r="G73" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I73" t="n">
         <v>-2.5</v>
       </c>
       <c r="J73" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K73" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L73" t="n">
         <v>-4</v>
       </c>
       <c r="M73" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N73" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="O73" t="n">
         <v>-4</v>
       </c>
       <c r="P73" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q73" t="s">
+        <v>173</v>
+      </c>
+      <c r="R73" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>85</v>
+      </c>
+      <c r="T73" t="s">
         <v>176</v>
       </c>
-      <c r="R73" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="S73" t="n">
-        <v>85</v>
-      </c>
-      <c r="T73" t="s">
-        <v>179</v>
-      </c>
       <c r="U73" t="n">
-        <v>-2.9</v>
+        <v>-4</v>
       </c>
       <c r="V73" t="n">
         <v>85</v>
       </c>
       <c r="W73" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="X73" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="Y73" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Z73" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AA73" t="n">
         <v>-4</v>
       </c>
       <c r="AB73" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AC73" t="s">
         <v>176</v>
@@ -8812,7 +8792,7 @@
         <v>-4</v>
       </c>
       <c r="AE73" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF73" t="s">
         <v>176</v>
@@ -8823,7 +8803,7 @@
         <v>44235</v>
       </c>
       <c r="B74" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -8832,7 +8812,7 @@
         <v>50</v>
       </c>
       <c r="E74" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -8841,7 +8821,7 @@
         <v>50</v>
       </c>
       <c r="H74" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -8850,7 +8830,7 @@
         <v>50</v>
       </c>
       <c r="K74" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -8859,7 +8839,7 @@
         <v>60</v>
       </c>
       <c r="N74" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -8868,7 +8848,7 @@
         <v>60</v>
       </c>
       <c r="Q74" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="R74" t="n">
         <v>0.2</v>
@@ -8895,7 +8875,7 @@
         <v>60</v>
       </c>
       <c r="Z74" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AA74" t="n">
         <v>-0.4</v>
@@ -8904,7 +8884,7 @@
         <v>60</v>
       </c>
       <c r="AC74" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AD74" t="n">
         <v>-0.4</v>
@@ -8913,7 +8893,7 @@
         <v>60</v>
       </c>
       <c r="AF74" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75">
@@ -8921,7 +8901,7 @@
         <v>44262</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C75" t="n">
         <v>0.6</v>
@@ -8930,7 +8910,7 @@
         <v>70</v>
       </c>
       <c r="E75" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F75" t="n">
         <v>0.6</v>
@@ -8939,7 +8919,7 @@
         <v>70</v>
       </c>
       <c r="H75" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I75" t="n">
         <v>0.6</v>
@@ -8948,7 +8928,7 @@
         <v>70</v>
       </c>
       <c r="K75" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L75" t="n">
         <v>-0.1</v>
@@ -8957,7 +8937,7 @@
         <v>65</v>
       </c>
       <c r="N75" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -8966,7 +8946,7 @@
         <v>70</v>
       </c>
       <c r="Q75" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="R75" t="n">
         <v>0.5</v>
@@ -8975,7 +8955,7 @@
         <v>65</v>
       </c>
       <c r="T75" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="U75" t="n">
         <v>0.6</v>
@@ -8984,7 +8964,7 @@
         <v>65</v>
       </c>
       <c r="W75" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="X75" t="n">
         <v>0.5</v>
@@ -9019,7 +8999,7 @@
         <v>44297</v>
       </c>
       <c r="B76" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C76" t="n">
         <v>0.3</v>
@@ -9073,7 +9053,7 @@
         <v>85</v>
       </c>
       <c r="T76" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="U76" t="n">
         <v>0.3</v>
@@ -9091,7 +9071,7 @@
         <v>85</v>
       </c>
       <c r="Z76" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AA76" t="n">
         <v>0.3</v>
@@ -9117,7 +9097,7 @@
         <v>44325</v>
       </c>
       <c r="B77" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C77" t="n">
         <v>1.1</v>
@@ -9126,7 +9106,7 @@
         <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F77" t="n">
         <v>1.1</v>
@@ -9135,7 +9115,7 @@
         <v>80</v>
       </c>
       <c r="H77" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I77" t="n">
         <v>1.1</v>
@@ -9144,7 +9124,7 @@
         <v>80</v>
       </c>
       <c r="K77" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L77" t="n">
         <v>0.8</v>
@@ -9153,7 +9133,7 @@
         <v>80</v>
       </c>
       <c r="N77" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="O77" t="n">
         <v>0.8</v>
@@ -9162,7 +9142,7 @@
         <v>80</v>
       </c>
       <c r="Q77" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="R77" t="n">
         <v>0.9</v>
@@ -9171,7 +9151,7 @@
         <v>85</v>
       </c>
       <c r="T77" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="U77" t="n">
         <v>0.9</v>
@@ -9180,7 +9160,7 @@
         <v>85</v>
       </c>
       <c r="W77" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="X77" t="n">
         <v>1</v>
@@ -9189,7 +9169,7 @@
         <v>75</v>
       </c>
       <c r="Z77" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AA77" t="n">
         <v>1</v>
@@ -9198,7 +9178,7 @@
         <v>75</v>
       </c>
       <c r="AC77" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AD77" t="n">
         <v>1</v>
@@ -9207,7 +9187,7 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78">
@@ -9215,7 +9195,7 @@
         <v>44360</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C78"/>
       <c r="D78"/>
@@ -9227,7 +9207,7 @@
         <v>85</v>
       </c>
       <c r="H78" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -9236,7 +9216,7 @@
         <v>85</v>
       </c>
       <c r="K78" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L78"/>
       <c r="M78"/>
@@ -9248,7 +9228,7 @@
         <v>75</v>
       </c>
       <c r="Q78" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R78"/>
       <c r="S78"/>
@@ -9260,7 +9240,7 @@
         <v>85</v>
       </c>
       <c r="W78" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="X78"/>
       <c r="Y78"/>
@@ -9272,7 +9252,7 @@
         <v>85</v>
       </c>
       <c r="AC78" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AD78" t="n">
         <v>0.7</v>
@@ -9281,7 +9261,7 @@
         <v>85</v>
       </c>
       <c r="AF78" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -9289,7 +9269,7 @@
         <v>44383</v>
       </c>
       <c r="B79" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C79" t="n">
         <v>0.9</v>
@@ -9298,7 +9278,7 @@
         <v>85</v>
       </c>
       <c r="E79" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F79" t="n">
         <v>0.9</v>
@@ -9307,7 +9287,7 @@
         <v>85</v>
       </c>
       <c r="H79" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I79" t="n">
         <v>0.9</v>
@@ -9316,7 +9296,7 @@
         <v>85</v>
       </c>
       <c r="K79" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L79" t="n">
         <v>1</v>
@@ -9325,7 +9305,7 @@
         <v>85</v>
       </c>
       <c r="N79" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="O79" t="n">
         <v>1</v>
@@ -9334,7 +9314,7 @@
         <v>85</v>
       </c>
       <c r="Q79" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="R79" t="n">
         <v>1</v>
@@ -9343,7 +9323,7 @@
         <v>90</v>
       </c>
       <c r="T79" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="U79" t="n">
         <v>1</v>
@@ -9352,7 +9332,7 @@
         <v>90</v>
       </c>
       <c r="W79" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="X79" t="n">
         <v>1</v>
@@ -9361,7 +9341,7 @@
         <v>90</v>
       </c>
       <c r="Z79" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AA79" t="n">
         <v>1</v>
@@ -9370,7 +9350,7 @@
         <v>90</v>
       </c>
       <c r="AC79" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AD79" t="n">
         <v>1</v>
@@ -9379,7 +9359,7 @@
         <v>90</v>
       </c>
       <c r="AF79" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80">
@@ -9387,7 +9367,7 @@
         <v>44416</v>
       </c>
       <c r="B80" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C80" t="n">
         <v>2.3</v>
@@ -9396,7 +9376,7 @@
         <v>65</v>
       </c>
       <c r="E80" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F80" t="n">
         <v>2.3</v>
@@ -9405,7 +9385,7 @@
         <v>65</v>
       </c>
       <c r="H80" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I80" t="n">
         <v>2.3</v>
@@ -9414,7 +9394,7 @@
         <v>65</v>
       </c>
       <c r="K80" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L80" t="n">
         <v>2.1</v>
@@ -9423,7 +9403,7 @@
         <v>70</v>
       </c>
       <c r="N80" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O80" t="n">
         <v>2.1</v>
@@ -9432,7 +9412,7 @@
         <v>70</v>
       </c>
       <c r="Q80" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="R80" t="n">
         <v>2.3</v>
@@ -9441,7 +9421,7 @@
         <v>70</v>
       </c>
       <c r="T80" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="U80" t="n">
         <v>2.3</v>
@@ -9450,7 +9430,7 @@
         <v>70</v>
       </c>
       <c r="W80" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="X80" t="n">
         <v>2.3</v>
@@ -9459,7 +9439,7 @@
         <v>70</v>
       </c>
       <c r="Z80" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AA80" t="n">
         <v>2.3</v>
@@ -9468,7 +9448,7 @@
         <v>70</v>
       </c>
       <c r="AC80" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AD80" t="n">
         <v>2.3</v>
@@ -9477,7 +9457,7 @@
         <v>70</v>
       </c>
       <c r="AF80" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81">
@@ -9485,7 +9465,7 @@
         <v>44451</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C81" t="n">
         <v>2.3</v>
@@ -9494,7 +9474,7 @@
         <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F81" t="n">
         <v>2.3</v>
@@ -9503,7 +9483,7 @@
         <v>85</v>
       </c>
       <c r="H81" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I81" t="n">
         <v>2.3</v>
@@ -9512,7 +9492,7 @@
         <v>85</v>
       </c>
       <c r="K81" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L81" t="n">
         <v>2.3</v>
@@ -9521,7 +9501,7 @@
         <v>85</v>
       </c>
       <c r="N81" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="O81" t="n">
         <v>2.3</v>
@@ -9530,7 +9510,7 @@
         <v>85</v>
       </c>
       <c r="Q81" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="R81" t="n">
         <v>2.3</v>
@@ -9539,7 +9519,7 @@
         <v>85</v>
       </c>
       <c r="T81" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="U81" t="n">
         <v>2.3</v>
@@ -9548,7 +9528,7 @@
         <v>85</v>
       </c>
       <c r="W81" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="X81" t="n">
         <v>2.3</v>
@@ -9557,7 +9537,7 @@
         <v>80</v>
       </c>
       <c r="Z81" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AA81" t="n">
         <v>2.3</v>
@@ -9566,7 +9546,7 @@
         <v>80</v>
       </c>
       <c r="AC81" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AD81" t="n">
         <v>2.3</v>
@@ -9575,7 +9555,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82">
@@ -9583,7 +9563,7 @@
         <v>44479</v>
       </c>
       <c r="B82" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C82" t="n">
         <v>2.5</v>
@@ -9592,7 +9572,7 @@
         <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F82" t="n">
         <v>2.5</v>
@@ -9601,7 +9581,7 @@
         <v>90</v>
       </c>
       <c r="H82" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I82" t="n">
         <v>2.5</v>
@@ -9610,7 +9590,7 @@
         <v>90</v>
       </c>
       <c r="K82" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L82" t="n">
         <v>2.3</v>
@@ -9619,7 +9599,7 @@
         <v>90</v>
       </c>
       <c r="N82" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O82" t="n">
         <v>2.3</v>
@@ -9628,7 +9608,7 @@
         <v>90</v>
       </c>
       <c r="Q82" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="R82" t="n">
         <v>2.5</v>
@@ -9637,7 +9617,7 @@
         <v>85</v>
       </c>
       <c r="T82" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="U82" t="n">
         <v>2.5</v>
@@ -9646,7 +9626,7 @@
         <v>85</v>
       </c>
       <c r="W82" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="X82" t="n">
         <v>2.3</v>
@@ -9655,7 +9635,7 @@
         <v>90</v>
       </c>
       <c r="Z82" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AA82" t="n">
         <v>2.3</v>
@@ -9664,7 +9644,7 @@
         <v>90</v>
       </c>
       <c r="AC82" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AD82" t="n">
         <v>2.3</v>
@@ -9673,7 +9653,7 @@
         <v>90</v>
       </c>
       <c r="AF82" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83">
@@ -9681,7 +9661,7 @@
         <v>44507</v>
       </c>
       <c r="B83" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C83" t="n">
         <v>0.7</v>
@@ -9690,7 +9670,7 @@
         <v>75</v>
       </c>
       <c r="E83" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F83" t="n">
         <v>0.7</v>
@@ -9699,7 +9679,7 @@
         <v>75</v>
       </c>
       <c r="H83" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I83" t="n">
         <v>0.7</v>
@@ -9708,7 +9688,7 @@
         <v>75</v>
       </c>
       <c r="K83" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L83" t="n">
         <v>0.8</v>
@@ -9717,7 +9697,7 @@
         <v>80</v>
       </c>
       <c r="N83" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="O83" t="n">
         <v>0.8</v>
@@ -9726,7 +9706,7 @@
         <v>80</v>
       </c>
       <c r="Q83" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="R83" t="n">
         <v>0.8</v>
@@ -9735,7 +9715,7 @@
         <v>80</v>
       </c>
       <c r="T83" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="U83" t="n">
         <v>0.8</v>
@@ -9744,7 +9724,7 @@
         <v>80</v>
       </c>
       <c r="W83" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="X83" t="n">
         <v>0.8</v>
@@ -9753,7 +9733,7 @@
         <v>85</v>
       </c>
       <c r="Z83" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AA83" t="n">
         <v>0.8</v>
@@ -9762,7 +9742,7 @@
         <v>85</v>
       </c>
       <c r="AC83" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AD83" t="n">
         <v>0.8</v>
@@ -9771,7 +9751,7 @@
         <v>85</v>
       </c>
       <c r="AF83" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84">
@@ -9779,7 +9759,7 @@
         <v>44536</v>
       </c>
       <c r="B84" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C84" t="n">
         <v>0.8</v>
@@ -9788,7 +9768,7 @@
         <v>70</v>
       </c>
       <c r="E84" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F84" t="n">
         <v>0.6</v>
@@ -9797,7 +9777,7 @@
         <v>65</v>
       </c>
       <c r="H84" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I84" t="n">
         <v>0.6</v>
@@ -9806,7 +9786,7 @@
         <v>65</v>
       </c>
       <c r="K84" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L84" t="n">
         <v>0.8</v>
@@ -9815,7 +9795,7 @@
         <v>70</v>
       </c>
       <c r="N84" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="O84" t="n">
         <v>0.7</v>
@@ -9824,7 +9804,7 @@
         <v>65</v>
       </c>
       <c r="Q84" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="R84" t="n">
         <v>0.8</v>
@@ -9833,7 +9813,7 @@
         <v>70</v>
       </c>
       <c r="T84" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="U84" t="n">
         <v>0.8</v>
@@ -9842,7 +9822,7 @@
         <v>70</v>
       </c>
       <c r="W84" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="X84" t="n">
         <v>0.8</v>
@@ -9851,7 +9831,7 @@
         <v>75</v>
       </c>
       <c r="Z84" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AA84" t="n">
         <v>0.8</v>
@@ -9860,7 +9840,7 @@
         <v>75</v>
       </c>
       <c r="AC84" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AD84" t="n">
         <v>0.8</v>
@@ -9869,7 +9849,7 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85">
@@ -9877,7 +9857,7 @@
         <v>44571</v>
       </c>
       <c r="B85" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C85" t="n">
         <v>0.8</v>
@@ -9886,7 +9866,7 @@
         <v>75</v>
       </c>
       <c r="E85" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F85" t="n">
         <v>0.8</v>
@@ -9895,7 +9875,7 @@
         <v>75</v>
       </c>
       <c r="H85" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I85" t="n">
         <v>0.8</v>
@@ -9904,7 +9884,7 @@
         <v>75</v>
       </c>
       <c r="K85" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L85" t="n">
         <v>0.6</v>
@@ -9931,7 +9911,7 @@
         <v>75</v>
       </c>
       <c r="T85" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="U85" t="n">
         <v>0.6</v>
@@ -9940,7 +9920,7 @@
         <v>75</v>
       </c>
       <c r="W85" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="X85" t="n">
         <v>0.7</v>
@@ -9949,7 +9929,7 @@
         <v>85</v>
       </c>
       <c r="Z85" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AA85" t="n">
         <v>0.7</v>
@@ -9958,7 +9938,7 @@
         <v>85</v>
       </c>
       <c r="AC85" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AD85" t="n">
         <v>0.7</v>
@@ -9967,7 +9947,7 @@
         <v>85</v>
       </c>
       <c r="AF85" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86">
@@ -9975,7 +9955,7 @@
         <v>44601</v>
       </c>
       <c r="B86" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C86" t="n">
         <v>0.4</v>
@@ -10073,7 +10053,7 @@
         <v>44632</v>
       </c>
       <c r="B87" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C87" t="n">
         <v>0.3</v>
@@ -10082,7 +10062,7 @@
         <v>40</v>
       </c>
       <c r="E87" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F87" t="n">
         <v>0.3</v>
@@ -10091,7 +10071,7 @@
         <v>40</v>
       </c>
       <c r="H87" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I87" t="n">
         <v>0.3</v>
@@ -10100,7 +10080,7 @@
         <v>40</v>
       </c>
       <c r="K87" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L87" t="n">
         <v>0.5</v>
@@ -10109,7 +10089,7 @@
         <v>60</v>
       </c>
       <c r="N87" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="O87" t="n">
         <v>0.5</v>
@@ -10118,7 +10098,7 @@
         <v>60</v>
       </c>
       <c r="Q87" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="R87" t="n">
         <v>0.3</v>
@@ -10127,7 +10107,7 @@
         <v>40</v>
       </c>
       <c r="T87" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="U87" t="n">
         <v>0.3</v>
@@ -10136,7 +10116,7 @@
         <v>40</v>
       </c>
       <c r="W87" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="X87" t="n">
         <v>0.3</v>
@@ -10145,7 +10125,7 @@
         <v>50</v>
       </c>
       <c r="Z87" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AA87" t="n">
         <v>0.3</v>
@@ -10154,7 +10134,7 @@
         <v>50</v>
       </c>
       <c r="AC87" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AD87" t="n">
         <v>0.3</v>
@@ -10163,7 +10143,7 @@
         <v>50</v>
       </c>
       <c r="AF87" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88">
@@ -10171,7 +10151,7 @@
         <v>44662</v>
       </c>
       <c r="B88" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -10180,7 +10160,7 @@
         <v>60</v>
       </c>
       <c r="E88" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -10189,7 +10169,7 @@
         <v>60</v>
       </c>
       <c r="H88" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -10198,7 +10178,7 @@
         <v>60</v>
       </c>
       <c r="K88" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L88" t="n">
         <v>0.3</v>
@@ -10269,7 +10249,7 @@
         <v>44691</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C89" t="n">
         <v>0.2</v>
@@ -10278,7 +10258,7 @@
         <v>55</v>
       </c>
       <c r="E89" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F89" t="n">
         <v>0.2</v>
@@ -10287,7 +10267,7 @@
         <v>55</v>
       </c>
       <c r="H89" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I89" t="n">
         <v>0.2</v>
@@ -10296,7 +10276,7 @@
         <v>55</v>
       </c>
       <c r="K89" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L89" t="n">
         <v>0.2</v>
@@ -10367,7 +10347,7 @@
         <v>44725</v>
       </c>
       <c r="B90" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C90" t="n">
         <v>0.3</v>
@@ -10465,7 +10445,7 @@
         <v>44753</v>
       </c>
       <c r="B91" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C91" t="n">
         <v>0.3</v>
@@ -10546,7 +10526,7 @@
         <v>80</v>
       </c>
       <c r="AC91" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AD91" t="n">
         <v>0.3</v>
@@ -10563,7 +10543,7 @@
         <v>44781</v>
       </c>
       <c r="B92" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C92" t="n">
         <v>0.2</v>
@@ -10572,7 +10552,7 @@
         <v>50</v>
       </c>
       <c r="E92" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F92" t="n">
         <v>0.2</v>
@@ -10581,7 +10561,7 @@
         <v>50</v>
       </c>
       <c r="H92" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I92" t="n">
         <v>0.2</v>
@@ -10590,7 +10570,7 @@
         <v>50</v>
       </c>
       <c r="K92" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L92" t="n">
         <v>0.1</v>
@@ -10661,7 +10641,7 @@
         <v>44811</v>
       </c>
       <c r="B93" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C93" t="n">
         <v>0.2</v>
@@ -10759,7 +10739,7 @@
         <v>44843</v>
       </c>
       <c r="B94" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C94" t="n">
         <v>0.2</v>
@@ -10768,7 +10748,7 @@
         <v>80</v>
       </c>
       <c r="E94" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F94" t="n">
         <v>0.2</v>
@@ -10857,7 +10837,7 @@
         <v>44873</v>
       </c>
       <c r="B95" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C95" t="n">
         <v>0.1</v>
@@ -10955,7 +10935,7 @@
         <v>44902</v>
       </c>
       <c r="B96" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C96" t="n">
         <v>0.1</v>
@@ -11027,7 +11007,7 @@
         <v>70</v>
       </c>
       <c r="Z96" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AA96" t="n">
         <v>0.1</v>
@@ -11036,7 +11016,7 @@
         <v>70</v>
       </c>
       <c r="AC96" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AD96" t="n">
         <v>0.1</v>
@@ -11045,7 +11025,7 @@
         <v>70</v>
       </c>
       <c r="AF96" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97">
@@ -11053,7 +11033,7 @@
         <v>44936</v>
       </c>
       <c r="B97" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C97" t="n">
         <v>0.2</v>
@@ -11080,7 +11060,7 @@
         <v>80</v>
       </c>
       <c r="K97" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="L97" t="n">
         <v>0.2</v>
@@ -11107,7 +11087,7 @@
         <v>75</v>
       </c>
       <c r="T97" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="U97" t="n">
         <v>0.1</v>
@@ -11116,7 +11096,7 @@
         <v>75</v>
       </c>
       <c r="W97" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="X97" t="n">
         <v>0.1</v>
@@ -11125,7 +11105,7 @@
         <v>80</v>
       </c>
       <c r="Z97" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AA97" t="n">
         <v>0.1</v>
@@ -11134,7 +11114,7 @@
         <v>80</v>
       </c>
       <c r="AC97" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AD97" t="n">
         <v>0.1</v>
@@ -11143,7 +11123,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="98">
@@ -11151,7 +11131,7 @@
         <v>44964</v>
       </c>
       <c r="B98" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C98" t="n">
         <v>0.1</v>
@@ -11187,7 +11167,7 @@
         <v>70</v>
       </c>
       <c r="N98" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O98" t="n">
         <v>0.1</v>
@@ -11196,7 +11176,7 @@
         <v>70</v>
       </c>
       <c r="Q98" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="R98" t="n">
         <v>0.1</v>
@@ -11249,7 +11229,7 @@
         <v>44992</v>
       </c>
       <c r="B99" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C99" t="n">
         <v>0.2</v>
@@ -11285,7 +11265,7 @@
         <v>75</v>
       </c>
       <c r="N99" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="O99" t="n">
         <v>0.1</v>
@@ -11294,7 +11274,7 @@
         <v>75</v>
       </c>
       <c r="Q99" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="R99" t="n">
         <v>0.3</v>
@@ -11347,7 +11327,7 @@
         <v>45026</v>
       </c>
       <c r="B100" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C100" t="n">
         <v>0.1</v>
@@ -11356,7 +11336,7 @@
         <v>85</v>
       </c>
       <c r="E100" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F100" t="n">
         <v>0.1</v>
@@ -11365,7 +11345,7 @@
         <v>85</v>
       </c>
       <c r="H100" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I100" t="n">
         <v>0.1</v>
@@ -11374,7 +11354,7 @@
         <v>85</v>
       </c>
       <c r="K100" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L100" t="n">
         <v>0.1</v>
@@ -11383,7 +11363,7 @@
         <v>70</v>
       </c>
       <c r="N100" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O100" t="n">
         <v>0.1</v>
@@ -11392,7 +11372,7 @@
         <v>70</v>
       </c>
       <c r="Q100" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="R100" t="n">
         <v>0.1</v>
@@ -11401,7 +11381,7 @@
         <v>75</v>
       </c>
       <c r="T100" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="U100" t="n">
         <v>0.1</v>
@@ -11410,7 +11390,7 @@
         <v>75</v>
       </c>
       <c r="W100" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="X100" t="n">
         <v>0.2</v>
@@ -11445,7 +11425,7 @@
         <v>45055</v>
       </c>
       <c r="B101" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C101" t="n">
         <v>0.1</v>
@@ -11543,7 +11523,7 @@
         <v>45084</v>
       </c>
       <c r="B102" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C102" t="n">
         <v>0.1</v>
@@ -11552,7 +11532,7 @@
         <v>75</v>
       </c>
       <c r="E102" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F102" t="n">
         <v>0.1</v>
@@ -11561,7 +11541,7 @@
         <v>75</v>
       </c>
       <c r="H102" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I102" t="n">
         <v>0.1</v>
@@ -11570,7 +11550,7 @@
         <v>75</v>
       </c>
       <c r="K102" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L102" t="n">
         <v>0.1</v>
@@ -11579,7 +11559,7 @@
         <v>80</v>
       </c>
       <c r="N102" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="O102" t="n">
         <v>0.1</v>
@@ -11588,7 +11568,7 @@
         <v>80</v>
       </c>
       <c r="Q102" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="R102" t="n">
         <v>0.2</v>
@@ -11641,7 +11621,7 @@
         <v>45116</v>
       </c>
       <c r="B103" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C103" t="n">
         <v>0.2</v>
@@ -11695,7 +11675,7 @@
         <v>70</v>
       </c>
       <c r="T103" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="U103" t="n">
         <v>0.1</v>
@@ -11704,7 +11684,7 @@
         <v>70</v>
       </c>
       <c r="W103" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="X103" t="n">
         <v>0.2</v>
@@ -11739,7 +11719,7 @@
         <v>45146</v>
       </c>
       <c r="B104" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C104" t="n">
         <v>0.1</v>
@@ -11775,7 +11755,7 @@
         <v>35</v>
       </c>
       <c r="N104" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="O104" t="n">
         <v>0.2</v>
@@ -11784,7 +11764,7 @@
         <v>35</v>
       </c>
       <c r="Q104" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="R104" t="n">
         <v>0.1</v>
@@ -11837,7 +11817,7 @@
         <v>45180</v>
       </c>
       <c r="B105" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C105" t="n">
         <v>0.1</v>
@@ -11846,7 +11826,7 @@
         <v>75</v>
       </c>
       <c r="E105" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F105" t="n">
         <v>0.1</v>
@@ -11855,7 +11835,7 @@
         <v>75</v>
       </c>
       <c r="H105" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I105" t="n">
         <v>0.1</v>
@@ -11864,7 +11844,7 @@
         <v>75</v>
       </c>
       <c r="K105" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L105" t="n">
         <v>0.1</v>
@@ -11873,7 +11853,7 @@
         <v>70</v>
       </c>
       <c r="N105" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O105" t="n">
         <v>0.1</v>
@@ -11882,7 +11862,7 @@
         <v>70</v>
       </c>
       <c r="Q105" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="R105" t="n">
         <v>0.1</v>
@@ -11891,7 +11871,7 @@
         <v>75</v>
       </c>
       <c r="T105" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="U105" t="n">
         <v>0.1</v>
@@ -11900,7 +11880,7 @@
         <v>75</v>
       </c>
       <c r="W105" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="X105" t="n">
         <v>0.1</v>
@@ -11909,7 +11889,7 @@
         <v>75</v>
       </c>
       <c r="Z105" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AA105" t="n">
         <v>0.1</v>
@@ -11918,7 +11898,7 @@
         <v>75</v>
       </c>
       <c r="AC105" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AD105" t="n">
         <v>0.1</v>
@@ -11927,7 +11907,7 @@
         <v>75</v>
       </c>
       <c r="AF105" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106">
@@ -11935,7 +11915,7 @@
         <v>45207</v>
       </c>
       <c r="B106" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C106" t="n">
         <v>0.1</v>
@@ -11944,7 +11924,7 @@
         <v>80</v>
       </c>
       <c r="E106" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F106" t="n">
         <v>0.1</v>
@@ -11953,7 +11933,7 @@
         <v>80</v>
       </c>
       <c r="H106" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I106" t="n">
         <v>0.1</v>
@@ -11962,7 +11942,7 @@
         <v>80</v>
       </c>
       <c r="K106" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L106" t="n">
         <v>0.1</v>
@@ -11971,7 +11951,7 @@
         <v>85</v>
       </c>
       <c r="N106" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="O106" t="n">
         <v>0.1</v>
@@ -11980,7 +11960,7 @@
         <v>85</v>
       </c>
       <c r="Q106" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="R106" t="n">
         <v>0.1</v>
@@ -11989,7 +11969,7 @@
         <v>75</v>
       </c>
       <c r="T106" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="U106" t="n">
         <v>0.1</v>
@@ -11998,7 +11978,7 @@
         <v>75</v>
       </c>
       <c r="W106" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="X106" t="n">
         <v>0.1</v>
@@ -12007,7 +11987,7 @@
         <v>75</v>
       </c>
       <c r="Z106" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AA106" t="n">
         <v>0.1</v>
@@ -12016,7 +11996,7 @@
         <v>75</v>
       </c>
       <c r="AC106" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AD106" t="n">
         <v>0.1</v>
@@ -12025,7 +12005,7 @@
         <v>75</v>
       </c>
       <c r="AF106" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107">
@@ -12033,7 +12013,7 @@
         <v>45237</v>
       </c>
       <c r="B107" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C107" t="n">
         <v>0.1</v>
@@ -12087,7 +12067,7 @@
         <v>70</v>
       </c>
       <c r="T107" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="U107" t="n">
         <v>0.1</v>
@@ -12096,7 +12076,7 @@
         <v>70</v>
       </c>
       <c r="W107" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="X107" t="n">
         <v>0</v>
@@ -12105,7 +12085,7 @@
         <v>65</v>
       </c>
       <c r="Z107" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AA107" t="n">
         <v>0</v>
@@ -12114,7 +12094,7 @@
         <v>65</v>
       </c>
       <c r="AC107" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AD107" t="n">
         <v>0</v>
@@ -12123,7 +12103,7 @@
         <v>65</v>
       </c>
       <c r="AF107" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108">
@@ -12131,7 +12111,7 @@
         <v>45270</v>
       </c>
       <c r="B108" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C108" t="n">
         <v>0.1</v>
@@ -12140,7 +12120,7 @@
         <v>75</v>
       </c>
       <c r="E108" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F108" t="n">
         <v>0.1</v>
@@ -12149,7 +12129,7 @@
         <v>75</v>
       </c>
       <c r="H108" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I108" t="n">
         <v>0.1</v>
@@ -12158,7 +12138,7 @@
         <v>75</v>
       </c>
       <c r="K108" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L108" t="n">
         <v>0.1</v>
@@ -12167,7 +12147,7 @@
         <v>75</v>
       </c>
       <c r="N108" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="O108" t="n">
         <v>0.1</v>
@@ -12176,7 +12156,7 @@
         <v>75</v>
       </c>
       <c r="Q108" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="R108" t="n">
         <v>0.1</v>
@@ -12203,7 +12183,7 @@
         <v>75</v>
       </c>
       <c r="Z108" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AA108" t="n">
         <v>0</v>
@@ -12212,7 +12192,7 @@
         <v>75</v>
       </c>
       <c r="AC108" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AD108" t="n">
         <v>0</v>
@@ -12221,7 +12201,7 @@
         <v>75</v>
       </c>
       <c r="AF108" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="109">
@@ -12229,7 +12209,7 @@
         <v>45300</v>
       </c>
       <c r="B109" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C109" t="n">
         <v>0.2</v>
@@ -12256,7 +12236,7 @@
         <v>70</v>
       </c>
       <c r="K109" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L109" t="n">
         <v>0.2</v>
@@ -12327,7 +12307,7 @@
         <v>45329</v>
       </c>
       <c r="B110" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C110" t="n">
         <v>0.1</v>
@@ -12425,7 +12405,7 @@
         <v>45362</v>
       </c>
       <c r="B111" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C111" t="n">
         <v>0.2</v>
@@ -12523,7 +12503,7 @@
         <v>45392</v>
       </c>
       <c r="B112" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C112" t="n">
         <v>0.2</v>
@@ -12532,7 +12512,7 @@
         <v>95</v>
       </c>
       <c r="E112" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F112" t="n">
         <v>0.2</v>
@@ -12541,7 +12521,7 @@
         <v>95</v>
       </c>
       <c r="H112" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I112" t="n">
         <v>0.2</v>
@@ -12550,7 +12530,7 @@
         <v>95</v>
       </c>
       <c r="K112" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L112" t="n">
         <v>0.2</v>
@@ -12595,7 +12575,7 @@
         <v>95</v>
       </c>
       <c r="Z112" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AA112" t="n">
         <v>0.2</v>
@@ -12604,7 +12584,7 @@
         <v>95</v>
       </c>
       <c r="AC112" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AD112" t="n">
         <v>0.2</v>
@@ -12613,7 +12593,7 @@
         <v>95</v>
       </c>
       <c r="AF112" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113">
@@ -12621,7 +12601,7 @@
         <v>45425</v>
       </c>
       <c r="B113" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C113" t="n">
         <v>0.1</v>
@@ -12719,7 +12699,7 @@
         <v>45453</v>
       </c>
       <c r="B114" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C114" t="n">
         <v>0.2</v>
@@ -12755,7 +12735,7 @@
         <v>75</v>
       </c>
       <c r="N114" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="O114" t="n">
         <v>0.1</v>
@@ -12764,7 +12744,7 @@
         <v>75</v>
       </c>
       <c r="Q114" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="R114" t="n">
         <v>0.2</v>
@@ -12791,7 +12771,7 @@
         <v>75</v>
       </c>
       <c r="Z114" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AA114" t="n">
         <v>0.1</v>
@@ -12800,7 +12780,7 @@
         <v>75</v>
       </c>
       <c r="AC114" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AD114" t="n">
         <v>0.1</v>
@@ -12809,7 +12789,7 @@
         <v>75</v>
       </c>
       <c r="AF114" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115">
@@ -12817,7 +12797,7 @@
         <v>45482</v>
       </c>
       <c r="B115" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C115" t="n">
         <v>0.1</v>
@@ -12871,7 +12851,7 @@
         <v>70</v>
       </c>
       <c r="T115" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="U115" t="n">
         <v>0.1</v>
@@ -12880,7 +12860,7 @@
         <v>70</v>
       </c>
       <c r="W115" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="X115" t="n">
         <v>0.1</v>
@@ -12915,7 +12895,7 @@
         <v>45512</v>
       </c>
       <c r="B116" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C116" t="n">
         <v>0.2</v>
@@ -12924,7 +12904,7 @@
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F116" t="n">
         <v>0.2</v>
@@ -12933,7 +12913,7 @@
         <v>50</v>
       </c>
       <c r="H116" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I116" t="n">
         <v>0.2</v>
@@ -12942,7 +12922,7 @@
         <v>50</v>
       </c>
       <c r="K116" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L116" t="n">
         <v>0.2</v>
@@ -13013,7 +12993,7 @@
         <v>45544</v>
       </c>
       <c r="B117" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C117" t="n">
         <v>0.3</v>
@@ -13111,7 +13091,7 @@
         <v>45572</v>
       </c>
       <c r="B118" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C118" t="n">
         <v>0.1</v>
@@ -13183,7 +13163,7 @@
         <v>70</v>
       </c>
       <c r="Z118" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AA118" t="n">
         <v>0.1</v>
@@ -13192,7 +13172,7 @@
         <v>70</v>
       </c>
       <c r="AC118" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AD118" t="n">
         <v>0.1</v>
@@ -13201,7 +13181,7 @@
         <v>70</v>
       </c>
       <c r="AF118" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119">
@@ -13209,7 +13189,7 @@
         <v>45607</v>
       </c>
       <c r="B119" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -13218,7 +13198,7 @@
         <v>60</v>
       </c>
       <c r="E119" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -13227,7 +13207,7 @@
         <v>60</v>
       </c>
       <c r="H119" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -13236,7 +13216,7 @@
         <v>60</v>
       </c>
       <c r="K119" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
@@ -13245,7 +13225,7 @@
         <v>60</v>
       </c>
       <c r="N119" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="O119" t="n">
         <v>0</v>
@@ -13254,7 +13234,7 @@
         <v>60</v>
       </c>
       <c r="Q119" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="R119" t="n">
         <v>0</v>
@@ -13263,7 +13243,7 @@
         <v>60</v>
       </c>
       <c r="T119" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="U119" t="n">
         <v>0</v>
@@ -13272,7 +13252,7 @@
         <v>60</v>
       </c>
       <c r="W119" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="X119" t="n">
         <v>0.1</v>
@@ -13307,7 +13287,7 @@
         <v>45635</v>
       </c>
       <c r="B120" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -13316,7 +13296,7 @@
         <v>70</v>
       </c>
       <c r="E120" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -13325,7 +13305,7 @@
         <v>70</v>
       </c>
       <c r="H120" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -13334,7 +13314,7 @@
         <v>70</v>
       </c>
       <c r="K120" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L120" t="n">
         <v>0.1</v>
@@ -13405,7 +13385,7 @@
         <v>45669</v>
       </c>
       <c r="B121" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C121" t="n">
         <v>0.1</v>
@@ -13414,7 +13394,7 @@
         <v>80</v>
       </c>
       <c r="E121" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F121" t="n">
         <v>0.1</v>
@@ -13423,7 +13403,7 @@
         <v>80</v>
       </c>
       <c r="H121" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I121" t="n">
         <v>0.1</v>
@@ -13432,7 +13412,7 @@
         <v>80</v>
       </c>
       <c r="K121" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L121" t="n">
         <v>0.1</v>
@@ -13441,7 +13421,7 @@
         <v>65</v>
       </c>
       <c r="N121" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="O121" t="n">
         <v>0.1</v>
@@ -13477,7 +13457,7 @@
         <v>80</v>
       </c>
       <c r="Z121" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AA121" t="n">
         <v>0.1</v>
@@ -13486,7 +13466,7 @@
         <v>80</v>
       </c>
       <c r="AC121" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AD121" t="n">
         <v>0.1</v>
@@ -13495,7 +13475,7 @@
         <v>80</v>
       </c>
       <c r="AF121" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122">
@@ -13503,7 +13483,7 @@
         <v>45698</v>
       </c>
       <c r="B122" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C122" t="n">
         <v>0.1</v>
@@ -13601,7 +13581,7 @@
         <v>45727</v>
       </c>
       <c r="B123" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C123" t="n">
         <v>0.2</v>
@@ -13699,7 +13679,7 @@
         <v>45754</v>
       </c>
       <c r="B124" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C124" t="n">
         <v>0.2</v>
@@ -13797,7 +13777,7 @@
         <v>45789</v>
       </c>
       <c r="B125" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C125" t="n">
         <v>0.1</v>
@@ -13883,7 +13863,7 @@
         <v>45818</v>
       </c>
       <c r="B126" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C126" t="n">
         <v>0.1</v>
@@ -13892,7 +13872,7 @@
         <v>75</v>
       </c>
       <c r="E126" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F126" t="n">
         <v>0.1</v>
@@ -13901,7 +13881,7 @@
         <v>75</v>
       </c>
       <c r="H126" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I126" t="n">
         <v>0.1</v>
@@ -13910,7 +13890,7 @@
         <v>75</v>
       </c>
       <c r="K126" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L126" t="n">
         <v>0.1</v>
@@ -13919,7 +13899,7 @@
         <v>70</v>
       </c>
       <c r="N126" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O126" t="n">
         <v>0.1</v>
@@ -13928,7 +13908,7 @@
         <v>70</v>
       </c>
       <c r="Q126" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="R126" t="n">
         <v>0.2</v>
@@ -13937,7 +13917,7 @@
         <v>70</v>
       </c>
       <c r="T126" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="U126" t="n">
         <v>0.2</v>
@@ -13975,7 +13955,7 @@
         <v>45846</v>
       </c>
       <c r="B127" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C127" t="n">
         <v>0.2</v>
@@ -14073,7 +14053,7 @@
         <v>45879</v>
       </c>
       <c r="B128" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C128" t="n">
         <v>0.2</v>
@@ -14171,7 +14151,7 @@
         <v>45908</v>
       </c>
       <c r="B129" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C129" t="n">
         <v>0.3</v>
@@ -14269,7 +14249,7 @@
         <v>45938</v>
       </c>
       <c r="B130" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C130" t="n">
         <v>0.2</v>
@@ -14305,7 +14285,7 @@
         <v>75</v>
       </c>
       <c r="N130" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="O130" t="n">
         <v>0.1</v>
@@ -14314,7 +14294,7 @@
         <v>75</v>
       </c>
       <c r="Q130" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="R130" t="n">
         <v>0.2</v>
@@ -14367,7 +14347,7 @@
         <v>45972</v>
       </c>
       <c r="B131" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C131" t="n">
         <v>0.1</v>
